--- a/CHI_CENSUS_ANALYSIS.xlsx
+++ b/CHI_CENSUS_ANALYSIS.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SelfLearning\Projects\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{159A5786-CDD0-451E-90CF-49AFEF41550A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D546BCCB-4448-4A3D-B407-8FED889900D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHI_CENSUS_ANALYSIS" sheetId="1" r:id="rId1"/>
@@ -18,64 +18,36 @@
     <sheet name="Scatter plots" sheetId="3" r:id="rId3"/>
     <sheet name="Pareto Chart" sheetId="4" r:id="rId4"/>
     <sheet name="Pareto Chart 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Analysis" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">tbl_1!$B$2:$B$78</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">tbl_1!$D$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">tbl_1!$B$2:$B$78</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">tbl_1!$D$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">tbl_1!$D$2:$D$78</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">tbl_1!$G$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">tbl_1!$G$2:$G$78</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">tbl_1!$B$2:$B$78</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">tbl_1!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">tbl_1!$D$2:$D$78</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">tbl_1!$G$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">tbl_1!$G$2:$G$78</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">tbl_1!$D$2:$D$78</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">tbl_1!$B$2:$B$78</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">tbl_1!$G$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">tbl_1!$G$2:$G$78</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">tbl_1!$A$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">tbl_1!$A$2:$A$78</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">tbl_1!$B$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">tbl_1!$B$2:$B$78</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">tbl_1!$C$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">tbl_1!$C$2:$C$78</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">tbl_1!$D$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">tbl_1!$G$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">tbl_1!$D$2:$D$78</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">tbl_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">tbl_1!$E$2:$E$78</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">tbl_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">tbl_1!$F$2:$F$78</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">tbl_1!$G$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">tbl_1!$G$2:$G$78</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">tbl_1!$H$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">tbl_1!$H$2:$H$78</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">tbl_1!$I$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">tbl_1!$G$2:$G$78</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">tbl_1!$I$2:$I$78</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">tbl_1!$B$2:$B$78</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">tbl_1!$G$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">tbl_1!$G$2:$G$78</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">tbl_1!$B$2:$B$78</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">tbl_1!$D$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">tbl_1!$D$2:$D$78</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">tbl_1!$G$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">tbl_1!$G$2:$G$78</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">tbl_1!$B$2:$B$78</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">tbl_1!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">tbl_1!$D$2:$D$78</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">tbl_1!$G$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">tbl_1!$G$2:$G$78</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">tbl_1!$G$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">tbl_1!$G$2:$G$78</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">tbl_1!$B$2:$B$78</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">tbl_1!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">tbl_1!$D$2:$D$78</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">tbl_1!$G$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">tbl_1!$G$2:$G$78</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>COMMUNITY_AREA_NUMBER</t>
   </si>
@@ -334,12 +306,21 @@
   <si>
     <t>Edgewater</t>
   </si>
+  <si>
+    <t>community_area_name</t>
+  </si>
+  <si>
+    <t>per_capita_income</t>
+  </si>
+  <si>
+    <t>percent_households_below_poverty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +454,12 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -816,8 +803,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -863,7 +856,179 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3996,15 +4161,776 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>per_capita_income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>North Center</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Near South Side</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lake View</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lincoln Park</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Near North Side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>57123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D38E-4A02-A244-8821E58C1BC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="63"/>
+        <c:axId val="471070160"/>
+        <c:axId val="471070488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="471070160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471070488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471070488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="471070160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Poverty</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> VS Per Capita Income</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>per_capita_income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Riverdale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fuller Park</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Englewood</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>North Lawndale</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>East Garfield Park</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A7B-40CA-A4FD-02C264B2C98D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent_households_below_poverty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Riverdale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fuller Park</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Englewood</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>North Lawndale</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>East Garfield Park</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A7B-40CA-A4FD-02C264B2C98D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="134229368"/>
+        <c:axId val="134228056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="134229368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134228056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134228056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134229368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4039,7 +4965,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{44F224E3-B603-4559-95B3-B956ED599D82}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>PER_CAPITA_INCOME</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4087,18 +5013,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.46</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.48</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4136,7 +5062,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{96B4C020-BC7D-4DA2-9B07-482BB780379A}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>PERCENT_HOUSEHOLDS_BELOW_POVERTY</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4152,7 +5078,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{A74FB14A-98F4-48FF-81AD-9685055FE7BF}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.47</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>PER_CAPITA_INCOME</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4422,6 +5348,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7467,6 +8473,1016 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7794,37 +9810,140 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72009413-2335-4627-8125-FCE3DDDE4EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0BF676-CB00-4FCA-B311-20BAEF256C24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I78" totalsRowShown="0">
-  <autoFilter ref="A1:I78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I78" totalsRowShown="0">
+  <autoFilter ref="A1:I78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="COMMUNITY_AREA_NUMBER">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="COMMUNITY_AREA_NUMBER">
       <calculatedColumnFormula>CHI_CENSUS_ANALYSIS!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="COMMUNITY_AREA_NAME">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="COMMUNITY_AREA_NAME">
       <calculatedColumnFormula>CHI_CENSUS_ANALYSIS!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PERCENT_OF_HOUSING_CROWDED">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PERCENT_OF_HOUSING_CROWDED">
       <calculatedColumnFormula>CHI_CENSUS_ANALYSIS!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PERCENT_HOUSEHOLDS_BELOW_POVERTY">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PERCENT_HOUSEHOLDS_BELOW_POVERTY">
       <calculatedColumnFormula>CHI_CENSUS_ANALYSIS!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PERCENT_AGED_16_UNEMPLOYED">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PERCENT_AGED_16_UNEMPLOYED">
       <calculatedColumnFormula>CHI_CENSUS_ANALYSIS!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="PERCENT_AGED_25_WITHOUT_HIGH_SCHOOL_DIPLOMA">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PERCENT_AGED_25_WITHOUT_HIGH_SCHOOL_DIPLOMA">
       <calculatedColumnFormula>CHI_CENSUS_ANALYSIS!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PER_CAPITA_INCOME">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PER_CAPITA_INCOME">
       <calculatedColumnFormula>CHI_CENSUS_ANALYSIS!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="HARDSHIP_INDEX">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="HARDSHIP_INDEX">
       <calculatedColumnFormula>CHI_CENSUS_ANALYSIS!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Total_College_Enrollments">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Total_College_Enrollments">
       <calculatedColumnFormula>CHI_CENSUS_ANALYSIS!J2</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10B0DD11-C871-4E25-99F4-531AC8681647}" name="Table2" displayName="Table2" ref="A1:B7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:B7" xr:uid="{10B0DD11-C871-4E25-99F4-531AC8681647}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="B2:B7"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{71DA8835-D135-4DB1-8322-85944326B399}" name="community_area_name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7EA7DFF4-866C-419E-B0C2-DB6A73F9D73A}" name="per_capita_income" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F73F5A77-B92A-4829-A020-41DAB5C995C8}" name="Table3" displayName="Table3" ref="A10:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A10:C15" xr:uid="{F73F5A77-B92A-4829-A020-41DAB5C995C8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{22AB8201-4BC5-4106-990A-6BF029A54B04}" name="community_area_name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{86D76E2D-BB04-428D-B69B-C568E3107A55}" name="per_capita_income" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2E2D8BEB-DA60-4722-846C-92C78DC52FA9}" name="percent_households_below_poverty" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8097,16 +10216,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8135,7 +10254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8167,7 +10286,7 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8199,7 +10318,7 @@
         <v>8197</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8231,7 +10350,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8263,7 +10382,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8295,7 +10414,7 @@
         <v>7541</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8327,7 +10446,7 @@
         <v>7055</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8359,7 +10478,7 @@
         <v>5615</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8391,7 +10510,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8423,7 +10542,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8455,7 +10574,7 @@
         <v>6469</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8487,7 +10606,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8519,7 +10638,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8551,7 +10670,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8583,7 +10702,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8615,7 +10734,7 @@
         <v>6954</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8647,7 +10766,7 @@
         <v>7764</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8679,7 +10798,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8711,7 +10830,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8743,7 +10862,7 @@
         <v>14386</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8775,7 +10894,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8807,7 +10926,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8839,7 +10958,7 @@
         <v>7351</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8871,7 +10990,7 @@
         <v>8620</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8903,7 +11022,7 @@
         <v>9429</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8935,7 +11054,7 @@
         <v>10933</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8967,7 +11086,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8999,7 +11118,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9031,7 +11150,7 @@
         <v>7975</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9063,7 +11182,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9095,7 +11214,7 @@
         <v>14793</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9127,7 +11246,7 @@
         <v>7257</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9159,7 +11278,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9191,7 +11310,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9223,7 +11342,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9255,7 +11374,7 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9287,7 +11406,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9319,7 +11438,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9351,7 +11470,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9383,7 +11502,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9415,7 +11534,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9447,7 +11566,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -9479,7 +11598,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -9511,7 +11630,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -9543,7 +11662,7 @@
         <v>5042</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9575,7 +11694,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9607,7 +11726,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9639,7 +11758,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9671,7 +11790,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9703,7 +11822,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9735,7 +11854,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9767,7 +11886,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9799,7 +11918,7 @@
         <v>5305</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9831,7 +11950,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9863,7 +11982,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9895,7 +12014,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9927,7 +12046,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9959,7 +12078,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9991,7 +12110,7 @@
         <v>9647</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -10023,7 +12142,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -10055,7 +12174,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -10087,7 +12206,7 @@
         <v>7922</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -10119,7 +12238,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -10151,7 +12270,7 @@
         <v>9915</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -10183,7 +12302,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -10215,7 +12334,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -10247,7 +12366,7 @@
         <v>7086</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -10279,7 +12398,7 @@
         <v>5946</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -10311,7 +12430,7 @@
         <v>6832</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -10343,7 +12462,7 @@
         <v>4051</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -10375,7 +12494,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -10407,7 +12526,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -10439,7 +12558,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -10471,7 +12590,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -10503,7 +12622,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -10535,7 +12654,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -10567,7 +12686,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -10605,14 +12724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
@@ -10625,7 +12744,7 @@
     <col min="9" max="9" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10654,7 +12773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>CHI_CENSUS_ANALYSIS!B2</f>
         <v>1</v>
@@ -10692,7 +12811,7 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>CHI_CENSUS_ANALYSIS!B3</f>
         <v>2</v>
@@ -10730,7 +12849,7 @@
         <v>8197</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>CHI_CENSUS_ANALYSIS!B4</f>
         <v>3</v>
@@ -10768,7 +12887,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>CHI_CENSUS_ANALYSIS!B5</f>
         <v>4</v>
@@ -10806,7 +12925,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>CHI_CENSUS_ANALYSIS!B6</f>
         <v>5</v>
@@ -10844,7 +12963,7 @@
         <v>7541</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>CHI_CENSUS_ANALYSIS!B7</f>
         <v>6</v>
@@ -10882,7 +13001,7 @@
         <v>7055</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>CHI_CENSUS_ANALYSIS!B8</f>
         <v>7</v>
@@ -10920,7 +13039,7 @@
         <v>5615</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>CHI_CENSUS_ANALYSIS!B9</f>
         <v>8</v>
@@ -10958,7 +13077,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>CHI_CENSUS_ANALYSIS!B10</f>
         <v>9</v>
@@ -10996,7 +13115,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>CHI_CENSUS_ANALYSIS!B11</f>
         <v>10</v>
@@ -11034,7 +13153,7 @@
         <v>6469</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>CHI_CENSUS_ANALYSIS!B12</f>
         <v>11</v>
@@ -11072,7 +13191,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>CHI_CENSUS_ANALYSIS!B13</f>
         <v>12</v>
@@ -11110,7 +13229,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>CHI_CENSUS_ANALYSIS!B14</f>
         <v>13</v>
@@ -11148,7 +13267,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>CHI_CENSUS_ANALYSIS!B15</f>
         <v>14</v>
@@ -11186,7 +13305,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>CHI_CENSUS_ANALYSIS!B16</f>
         <v>15</v>
@@ -11224,7 +13343,7 @@
         <v>6954</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>CHI_CENSUS_ANALYSIS!B17</f>
         <v>16</v>
@@ -11262,7 +13381,7 @@
         <v>7764</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>CHI_CENSUS_ANALYSIS!B18</f>
         <v>17</v>
@@ -11300,7 +13419,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>CHI_CENSUS_ANALYSIS!B19</f>
         <v>18</v>
@@ -11338,7 +13457,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>CHI_CENSUS_ANALYSIS!B20</f>
         <v>19</v>
@@ -11376,7 +13495,7 @@
         <v>14386</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>CHI_CENSUS_ANALYSIS!B21</f>
         <v>20</v>
@@ -11414,7 +13533,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>CHI_CENSUS_ANALYSIS!B22</f>
         <v>21</v>
@@ -11452,7 +13571,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>CHI_CENSUS_ANALYSIS!B23</f>
         <v>22</v>
@@ -11490,7 +13609,7 @@
         <v>7351</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>CHI_CENSUS_ANALYSIS!B24</f>
         <v>23</v>
@@ -11528,7 +13647,7 @@
         <v>8620</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>CHI_CENSUS_ANALYSIS!B25</f>
         <v>24</v>
@@ -11566,7 +13685,7 @@
         <v>9429</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>CHI_CENSUS_ANALYSIS!B26</f>
         <v>25</v>
@@ -11604,7 +13723,7 @@
         <v>10933</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>CHI_CENSUS_ANALYSIS!B27</f>
         <v>26</v>
@@ -11642,7 +13761,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>CHI_CENSUS_ANALYSIS!B28</f>
         <v>27</v>
@@ -11680,7 +13799,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>CHI_CENSUS_ANALYSIS!B29</f>
         <v>28</v>
@@ -11718,7 +13837,7 @@
         <v>7975</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>CHI_CENSUS_ANALYSIS!B30</f>
         <v>29</v>
@@ -11756,7 +13875,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>CHI_CENSUS_ANALYSIS!B31</f>
         <v>30</v>
@@ -11794,7 +13913,7 @@
         <v>14793</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>CHI_CENSUS_ANALYSIS!B32</f>
         <v>31</v>
@@ -11832,7 +13951,7 @@
         <v>7257</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>CHI_CENSUS_ANALYSIS!B33</f>
         <v>32</v>
@@ -11870,7 +13989,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>CHI_CENSUS_ANALYSIS!B34</f>
         <v>33</v>
@@ -11908,7 +14027,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>CHI_CENSUS_ANALYSIS!B35</f>
         <v>34</v>
@@ -11946,7 +14065,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>CHI_CENSUS_ANALYSIS!B36</f>
         <v>35</v>
@@ -11984,7 +14103,7 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>CHI_CENSUS_ANALYSIS!B37</f>
         <v>36</v>
@@ -12022,7 +14141,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>CHI_CENSUS_ANALYSIS!B38</f>
         <v>37</v>
@@ -12060,7 +14179,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>CHI_CENSUS_ANALYSIS!B39</f>
         <v>38</v>
@@ -12098,7 +14217,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>CHI_CENSUS_ANALYSIS!B40</f>
         <v>39</v>
@@ -12136,7 +14255,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>CHI_CENSUS_ANALYSIS!B41</f>
         <v>40</v>
@@ -12174,7 +14293,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>CHI_CENSUS_ANALYSIS!B42</f>
         <v>41</v>
@@ -12212,7 +14331,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>CHI_CENSUS_ANALYSIS!B43</f>
         <v>42</v>
@@ -12250,7 +14369,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>CHI_CENSUS_ANALYSIS!B44</f>
         <v>43</v>
@@ -12288,7 +14407,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>CHI_CENSUS_ANALYSIS!B45</f>
         <v>44</v>
@@ -12326,7 +14445,7 @@
         <v>5042</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>CHI_CENSUS_ANALYSIS!B46</f>
         <v>45</v>
@@ -12364,7 +14483,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>CHI_CENSUS_ANALYSIS!B47</f>
         <v>46</v>
@@ -12402,7 +14521,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>CHI_CENSUS_ANALYSIS!B48</f>
         <v>47</v>
@@ -12440,7 +14559,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>CHI_CENSUS_ANALYSIS!B49</f>
         <v>48</v>
@@ -12478,7 +14597,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>CHI_CENSUS_ANALYSIS!B50</f>
         <v>49</v>
@@ -12516,7 +14635,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>CHI_CENSUS_ANALYSIS!B51</f>
         <v>50</v>
@@ -12554,7 +14673,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>CHI_CENSUS_ANALYSIS!B52</f>
         <v>51</v>
@@ -12592,7 +14711,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>CHI_CENSUS_ANALYSIS!B53</f>
         <v>52</v>
@@ -12630,7 +14749,7 @@
         <v>5305</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>CHI_CENSUS_ANALYSIS!B54</f>
         <v>53</v>
@@ -12668,7 +14787,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>CHI_CENSUS_ANALYSIS!B55</f>
         <v>54</v>
@@ -12706,7 +14825,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>CHI_CENSUS_ANALYSIS!B56</f>
         <v>55</v>
@@ -12744,7 +14863,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>CHI_CENSUS_ANALYSIS!B57</f>
         <v>56</v>
@@ -12782,7 +14901,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>CHI_CENSUS_ANALYSIS!B58</f>
         <v>57</v>
@@ -12820,7 +14939,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>CHI_CENSUS_ANALYSIS!B59</f>
         <v>58</v>
@@ -12858,7 +14977,7 @@
         <v>9647</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>CHI_CENSUS_ANALYSIS!B60</f>
         <v>59</v>
@@ -12896,7 +15015,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>CHI_CENSUS_ANALYSIS!B61</f>
         <v>60</v>
@@ -12934,7 +15053,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>CHI_CENSUS_ANALYSIS!B62</f>
         <v>61</v>
@@ -12972,7 +15091,7 @@
         <v>7922</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>CHI_CENSUS_ANALYSIS!B63</f>
         <v>62</v>
@@ -13010,7 +15129,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>CHI_CENSUS_ANALYSIS!B64</f>
         <v>63</v>
@@ -13048,7 +15167,7 @@
         <v>9915</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>CHI_CENSUS_ANALYSIS!B65</f>
         <v>64</v>
@@ -13086,7 +15205,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>CHI_CENSUS_ANALYSIS!B66</f>
         <v>65</v>
@@ -13124,7 +15243,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>CHI_CENSUS_ANALYSIS!B67</f>
         <v>66</v>
@@ -13162,7 +15281,7 @@
         <v>7086</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>CHI_CENSUS_ANALYSIS!B68</f>
         <v>67</v>
@@ -13200,7 +15319,7 @@
         <v>5946</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>CHI_CENSUS_ANALYSIS!B69</f>
         <v>68</v>
@@ -13238,7 +15357,7 @@
         <v>6832</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>CHI_CENSUS_ANALYSIS!B70</f>
         <v>69</v>
@@ -13276,7 +15395,7 @@
         <v>4051</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>CHI_CENSUS_ANALYSIS!B71</f>
         <v>70</v>
@@ -13314,7 +15433,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>CHI_CENSUS_ANALYSIS!B72</f>
         <v>71</v>
@@ -13352,7 +15471,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>CHI_CENSUS_ANALYSIS!B73</f>
         <v>72</v>
@@ -13390,7 +15509,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>CHI_CENSUS_ANALYSIS!B74</f>
         <v>73</v>
@@ -13428,7 +15547,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>CHI_CENSUS_ANALYSIS!B75</f>
         <v>74</v>
@@ -13466,7 +15585,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>CHI_CENSUS_ANALYSIS!B76</f>
         <v>75</v>
@@ -13504,7 +15623,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>CHI_CENSUS_ANALYSIS!B77</f>
         <v>76</v>
@@ -13542,7 +15661,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>CHI_CENSUS_ANALYSIS!B78</f>
         <v>77</v>
@@ -13589,7 +15708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -13604,7 +15723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13617,7 +15736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -13629,4 +15748,151 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE66F78F-1553-46A5-980A-F1C347BC15F0}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>57123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2">
+        <v>59077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>60058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
+        <v>65526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>71551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>88669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8201</v>
+      </c>
+      <c r="C11" s="2">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10432</v>
+      </c>
+      <c r="C12" s="2">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11888</v>
+      </c>
+      <c r="C13" s="2">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12034</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12961</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/CHI_CENSUS_ANALYSIS.xlsx
+++ b/CHI_CENSUS_ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SelfLearning\Projects\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D546BCCB-4448-4A3D-B407-8FED889900D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D4988-CC98-4A42-9DEE-187618EF3530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,55 @@
     <sheet name="Scatter plots" sheetId="3" r:id="rId3"/>
     <sheet name="Pareto Chart" sheetId="4" r:id="rId4"/>
     <sheet name="Pareto Chart 2" sheetId="5" r:id="rId5"/>
-    <sheet name="Analysis" sheetId="6" r:id="rId6"/>
+    <sheet name="Analysis" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">tbl_1!$B$2:$B$78</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">tbl_1!$G$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Analysis!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Analysis!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Analysis!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Analysis!$A$19:$A$24</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Analysis!$B$18</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Analysis!$B$19:$B$24</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Analysis!$C$18</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Analysis!$C$19:$C$24</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Analysis!$D$18</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Analysis!$D$19:$D$24</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">tbl_1!$G$2:$G$78</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Analysis!$A$19:$A$24</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Analysis!$B$18</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Analysis!$B$19:$B$24</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Analysis!$C$18</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Analysis!$C$19:$C$24</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Analysis!$D$18</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Analysis!$D$19:$D$24</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Analysis!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Analysis!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Analysis!$B$2:$B$7</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">tbl_1!$B$2:$B$78</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Analysis!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Analysis!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Analysis!$A$19:$A$24</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Analysis!$B$18</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Analysis!$B$19:$B$24</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Analysis!$C$18</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Analysis!$C$19:$C$24</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Analysis!$D$18</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Analysis!$D$19:$D$24</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Analysis!$A$19:$A$24</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">tbl_1!$D$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Analysis!$B$18</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Analysis!$B$19:$B$24</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Analysis!$C$18</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Analysis!$C$19:$C$24</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Analysis!$D$18</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Analysis!$D$19:$D$24</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">tbl_1!$D$2:$D$78</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">tbl_1!$G$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">tbl_1!$G$2:$G$78</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Analysis!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Analysis!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <si>
     <t>COMMUNITY_AREA_NUMBER</t>
   </si>
@@ -314,6 +352,27 @@
   </si>
   <si>
     <t>percent_households_below_poverty</t>
+  </si>
+  <si>
+    <t>LAKE VIEW</t>
+  </si>
+  <si>
+    <t>LINCOLN PARK</t>
+  </si>
+  <si>
+    <t>LOOP</t>
+  </si>
+  <si>
+    <t>NEAR NORTH SIDE</t>
+  </si>
+  <si>
+    <t>NEAR SOUTH SIDE</t>
+  </si>
+  <si>
+    <t>NORTH CENTER</t>
+  </si>
+  <si>
+    <t>total_collge_enrollments</t>
   </si>
 </sst>
 </file>
@@ -856,7 +915,45 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1026,7 +1123,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4161,767 +4258,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysis!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>per_capita_income</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Analysis!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>North Center</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Near South Side</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Lake View</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Lincoln Park</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Near North Side</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysis!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>57123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60058</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65526</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71551</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88669</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D38E-4A02-A244-8821E58C1BC3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="63"/>
-        <c:axId val="471070160"/>
-        <c:axId val="471070488"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="471070160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="471070488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="471070488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471070160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Poverty</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> VS Per Capita Income</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysis!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>per_capita_income</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Analysis!$A$11:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Riverdale</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fuller Park</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Englewood</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>North Lawndale</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>East Garfield Park</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysis!$B$11:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10432</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11888</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12961</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A7B-40CA-A4FD-02C264B2C98D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysis!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>percent_households_below_poverty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Analysis!$A$11:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Riverdale</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fuller Park</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Englewood</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>North Lawndale</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>East Garfield Park</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysis!$C$11:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>56.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A7B-40CA-A4FD-02C264B2C98D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="134229368"/>
-        <c:axId val="134228056"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="134229368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="134228056"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="134228056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="134229368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -5094,6 +4430,244 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>COLLEGE ENROLLMNTS VS PER CAPITA INCOME</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+            </a:rPr>
+            <a:t>COLLEGE ENROLLMNTS VS PER CAPITA INCOME</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5BB4FB84-584C-49EC-AD77-E0CFB276F29D}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>per_capita_income</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{28A29022-4F00-479C-96DA-5FA04F11710C}" formatIdx="1">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{F7871C7C-BEF7-414A-A4CB-796EB23BF593}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:v>total_collge_enrollments</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels/>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{C85E6F52-5B4E-41D5-B2B5-ADD8C5C216DB}" formatIdx="3">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.32</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.34</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.32</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.36</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.32</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.38</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Poverty VS College Enrollments</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+            </a:rPr>
+            <a:t>Poverty VS College Enrollments</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{368E3360-0274-4E16-AD2B-CAFD28216A45}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:v>per_capita_income</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{484FE9C5-E3DD-422F-96FD-A49FE135FFF5}" formatIdx="1">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{C3467F03-EA3D-48BF-B628-4B444A094C02}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.35</cx:f>
+              <cx:v>percent_households_below_poverty</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels/>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{03A35E3D-ECE8-45AB-B39F-1636EE608751}" formatIdx="3">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{A216EABA-94AA-4F07-8FD5-EE91ACB3B7B5}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.37</cx:f>
+              <cx:v>total_collge_enrollments</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="4" uniqueId="{ACF6C77F-8DFF-4F24-B030-7BCB96A9CACD}" formatIdx="5">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.100000001"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -5349,12 +4923,9 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -8478,7 +8049,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8489,7 +8060,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -8512,7 +8083,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -8535,7 +8106,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8543,11 +8114,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -8572,36 +8143,46 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8616,10 +8197,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -8627,9 +8206,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -8639,13 +8221,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8664,7 +8246,95 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8675,9 +8345,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8685,24 +8354,37 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8720,46 +8402,44 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -8772,8 +8452,9 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8781,56 +8462,15 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8840,66 +8480,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8915,7 +8496,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8929,27 +8510,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8963,7 +8543,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -8972,18 +8552,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8994,7 +8568,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9017,7 +8591,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -9040,7 +8614,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9048,11 +8622,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -9077,36 +8651,46 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9121,10 +8705,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -9132,9 +8714,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -9144,13 +8729,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9169,7 +8754,95 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9180,9 +8853,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9190,24 +8862,37 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9225,46 +8910,44 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9277,8 +8960,9 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9286,56 +8970,15 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9345,66 +8988,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9420,7 +9004,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9434,27 +9018,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9468,7 +9051,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -9477,12 +9060,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9815,73 +9392,157 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
+      <xdr:colOff>461962</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>257174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72009413-2335-4627-8125-FCE3DDDE4EA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9954E41-2A3E-4354-AD0B-BAB86483C5C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4586287" y="257174"/>
+              <a:ext cx="5424488" cy="3324225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>242887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0BF676-CB00-4FCA-B311-20BAEF256C24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0428309-D890-4773-8FB5-6371B60117FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3600450" y="1423987"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9924,26 +9585,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10B0DD11-C871-4E25-99F4-531AC8681647}" name="Table2" displayName="Table2" ref="A1:B7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:B7" xr:uid="{10B0DD11-C871-4E25-99F4-531AC8681647}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F42D535-0266-4D46-8674-0B2F17AB6D62}" name="Table2" displayName="Table2" ref="A1:C7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="A1:C7" xr:uid="{2F42D535-0266-4D46-8674-0B2F17AB6D62}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
     <sortCondition ref="B2:B7"/>
   </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{71DA8835-D135-4DB1-8322-85944326B399}" name="community_area_name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{7EA7DFF4-866C-419E-B0C2-DB6A73F9D73A}" name="per_capita_income" dataDxfId="5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{05FE148B-B3FE-480B-8E40-BDBC5C5EE72C}" name="community_area_name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{25E697DB-D78C-44C6-ADFD-D2D21075FE7E}" name="per_capita_income" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{40ABA311-456D-41BA-8565-10BDDA94B465}" name="total_collge_enrollments" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F73F5A77-B92A-4829-A020-41DAB5C995C8}" name="Table3" displayName="Table3" ref="A10:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A10:C15" xr:uid="{F73F5A77-B92A-4829-A020-41DAB5C995C8}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{22AB8201-4BC5-4106-990A-6BF029A54B04}" name="community_area_name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{86D76E2D-BB04-428D-B69B-C568E3107A55}" name="per_capita_income" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{2E2D8BEB-DA60-4722-846C-92C78DC52FA9}" name="percent_households_below_poverty" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{280A06A3-BF4B-48CE-A870-94AF8E9B54E2}" name="Table3" displayName="Table3" ref="A18:D24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A18:D24" xr:uid="{280A06A3-BF4B-48CE-A870-94AF8E9B54E2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{77F95DFD-42DB-4FE1-92E7-70067504AA0C}" name="community_area_name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D1156132-C413-491C-B4DD-EF5949A0FD1E}" name="per_capita_income" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4CE90B34-0858-433E-AE83-42F5360112DA}" name="percent_households_below_poverty" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B6DA3F88-7C6B-4551-A328-DAE17294BF96}" name="total_collge_enrollments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15751,11 +15414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE66F78F-1553-46A5-980A-F1C347BC15F0}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A24B44F-52AC-4AFB-B97D-06DAC90F4235}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15763,128 +15426,182 @@
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2">
         <v>57123</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>7541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2">
         <v>59077</v>
       </c>
+      <c r="C3" s="2">
+        <v>1378</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2">
         <v>60058</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2">
         <v>65526</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2">
         <v>71551</v>
       </c>
+      <c r="C6" s="2">
+        <v>5615</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2">
         <v>88669</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C7" s="2">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8201</v>
-      </c>
-      <c r="C11" s="2">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10432</v>
-      </c>
-      <c r="C12" s="2">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="2">
-        <v>11888</v>
-      </c>
-      <c r="C13" s="2">
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2">
-        <v>12034</v>
-      </c>
-      <c r="C14" s="2">
-        <v>43.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2">
-        <v>12961</v>
-      </c>
-      <c r="C15" s="2">
-        <v>42.4</v>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="2">
+        <v>57123</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2">
+        <v>60058</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2">
+        <v>71551</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2">
+        <v>88669</v>
+      </c>
+      <c r="C22" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2">
+        <v>59077</v>
+      </c>
+      <c r="C23" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2">
+        <v>65526</v>
+      </c>
+      <c r="C24" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
